--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Age_Under-7.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Age_Under-7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F575369E-337F-8B4B-AB04-86376327EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2220B-0DF7-F14D-BCFB-5CB52ECABA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17480" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="351">
   <si>
     <t>Question</t>
   </si>
@@ -1154,14 +1154,25 @@
   <si>
     <t>CHARMSRasParent</t>
   </si>
+  <si>
+    <t>Date of birth month</t>
+  </si>
+  <si>
+    <t>Date of birth year</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>October 31, 2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1224,7 +1235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,9 +1273,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1581,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1694,247 +1707,263 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="15">
-        <v>45229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
+      <c r="B14" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" s="16">
+        <v>2023</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4">
-        <v>22015</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>342</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>342</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="4">
+        <v>22015</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{F82FA76E-2358-814A-8E85-BCB9636B476E}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{9CF4B7EF-6998-144B-B594-2EFE15A9CFC2}"/>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{F82FA76E-2358-814A-8E85-BCB9636B476E}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{9CF4B7EF-6998-144B-B594-2EFE15A9CFC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Age_Under-7.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Age_Under-7.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF2220B-0DF7-F14D-BCFB-5CB52ECABA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A343C-7ACE-D644-AFE8-5A21375B8E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17480" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="30240" windowHeight="17480" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="screenerScenarioAgeUnder7" sheetId="1" r:id="rId1"/>
-    <sheet name="IIQScenario1" sheetId="2" r:id="rId2"/>
-    <sheet name="RASSurveyScenario1" sheetId="7" r:id="rId3"/>
+    <sheet name="rasE-ConsentUnder7" sheetId="8" r:id="rId2"/>
+    <sheet name="IIQScenario1" sheetId="2" r:id="rId3"/>
+    <sheet name="RASSurveyScenario1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1596,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1864,7 +1865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -1970,6 +1971,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1698006-0040-414C-B7F9-F88868A936DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -2461,7 +2476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89138E5-4B7A-8A4C-A60B-54B878E1BA10}">
   <dimension ref="A1:B163"/>
   <sheetViews>
